--- a/data_pulling/team_game_logs_1819/team_game_log_IND.xlsx
+++ b/data_pulling/team_game_logs_1819/team_game_log_IND.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
   <si>
     <t>game.awayTeamAbbreviation</t>
   </si>
@@ -271,6 +271,12 @@
     <t>CHI</t>
   </si>
   <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
     <t>MIL</t>
   </si>
   <si>
@@ -292,9 +298,6 @@
     <t>LAL</t>
   </si>
   <si>
-    <t>SAC</t>
-  </si>
-  <si>
     <t>ORL</t>
   </si>
   <si>
@@ -371,6 +374,12 @@
   </si>
   <si>
     <t>2018-12-08T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-09T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-11T00:00:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -728,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV26"/>
+  <dimension ref="A1:BV28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -969,7 +978,7 @@
         <v>47574</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -1187,13 +1196,13 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>47592</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1417,7 +1426,7 @@
         <v>47595</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1635,13 +1644,13 @@
         <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>47612</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -1865,7 +1874,7 @@
         <v>47627</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2083,13 +2092,13 @@
         <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D7">
         <v>47646</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2313,7 +2322,7 @@
         <v>47656</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -2531,13 +2540,13 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>47674</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -2761,7 +2770,7 @@
         <v>47689</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -2985,7 +2994,7 @@
         <v>47696</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -3209,7 +3218,7 @@
         <v>47710</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -3433,7 +3442,7 @@
         <v>47726</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -3657,7 +3666,7 @@
         <v>47739</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -3881,7 +3890,7 @@
         <v>47754</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -4105,7 +4114,7 @@
         <v>47786</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -4329,7 +4338,7 @@
         <v>47795</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -4553,7 +4562,7 @@
         <v>47810</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -4771,13 +4780,13 @@
         <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D19">
         <v>47821</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -5001,7 +5010,7 @@
         <v>47841</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -5225,7 +5234,7 @@
         <v>47868</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -5443,13 +5452,13 @@
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D22">
         <v>47874</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -5667,13 +5676,13 @@
         <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D23">
         <v>47886</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -5891,13 +5900,13 @@
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D24">
         <v>47905</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -6121,7 +6130,7 @@
         <v>47919</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -6339,22 +6348,22 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D26">
         <v>47939</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F26">
         <v>8</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I26">
         <v>8</v>
@@ -6468,10 +6477,10 @@
         <v>17</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AU26">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AV26">
         <v>17</v>
@@ -6489,16 +6498,16 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BD26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BE26">
         <v>22</v>
@@ -6552,6 +6561,454 @@
         <v>74</v>
       </c>
       <c r="BV26">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:74">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27">
+        <v>47948</v>
+      </c>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>97</v>
+      </c>
+      <c r="K27">
+        <v>97</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+      <c r="N27">
+        <v>15</v>
+      </c>
+      <c r="O27">
+        <v>15</v>
+      </c>
+      <c r="P27">
+        <v>62</v>
+      </c>
+      <c r="Q27">
+        <v>62</v>
+      </c>
+      <c r="R27">
+        <v>32</v>
+      </c>
+      <c r="S27">
+        <v>32</v>
+      </c>
+      <c r="T27">
+        <v>51.6</v>
+      </c>
+      <c r="U27">
+        <v>30</v>
+      </c>
+      <c r="V27">
+        <v>30</v>
+      </c>
+      <c r="W27">
+        <v>8</v>
+      </c>
+      <c r="X27">
+        <v>8</v>
+      </c>
+      <c r="Y27">
+        <v>26.7</v>
+      </c>
+      <c r="Z27">
+        <v>92</v>
+      </c>
+      <c r="AA27">
+        <v>92</v>
+      </c>
+      <c r="AB27">
+        <v>40</v>
+      </c>
+      <c r="AC27">
+        <v>40</v>
+      </c>
+      <c r="AD27">
+        <v>43.5</v>
+      </c>
+      <c r="AE27">
+        <v>22</v>
+      </c>
+      <c r="AF27">
+        <v>22</v>
+      </c>
+      <c r="AG27">
+        <v>19</v>
+      </c>
+      <c r="AH27">
+        <v>19</v>
+      </c>
+      <c r="AI27">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>17</v>
+      </c>
+      <c r="AT27">
+        <v>21</v>
+      </c>
+      <c r="AU27">
+        <v>21</v>
+      </c>
+      <c r="AV27">
+        <v>17</v>
+      </c>
+      <c r="AW27">
+        <v>17</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>17</v>
+      </c>
+      <c r="BB27">
+        <v>21</v>
+      </c>
+      <c r="BC27">
+        <v>21</v>
+      </c>
+      <c r="BD27">
+        <v>17</v>
+      </c>
+      <c r="BE27">
+        <v>10</v>
+      </c>
+      <c r="BF27">
+        <v>10</v>
+      </c>
+      <c r="BG27">
+        <v>26</v>
+      </c>
+      <c r="BH27">
+        <v>26</v>
+      </c>
+      <c r="BI27">
+        <v>107</v>
+      </c>
+      <c r="BJ27">
+        <v>107</v>
+      </c>
+      <c r="BK27">
+        <v>37</v>
+      </c>
+      <c r="BL27">
+        <v>37</v>
+      </c>
+      <c r="BM27">
+        <v>15</v>
+      </c>
+      <c r="BN27">
+        <v>15</v>
+      </c>
+      <c r="BO27">
+        <v>52</v>
+      </c>
+      <c r="BP27">
+        <v>52</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>1</v>
+      </c>
+      <c r="BT27">
+        <v>1</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV27">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:74">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28">
+        <v>47960</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>101</v>
+      </c>
+      <c r="K28">
+        <v>101</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <v>23</v>
+      </c>
+      <c r="O28">
+        <v>23</v>
+      </c>
+      <c r="P28">
+        <v>56</v>
+      </c>
+      <c r="Q28">
+        <v>56</v>
+      </c>
+      <c r="R28">
+        <v>31</v>
+      </c>
+      <c r="S28">
+        <v>31</v>
+      </c>
+      <c r="T28">
+        <v>55.4</v>
+      </c>
+      <c r="U28">
+        <v>20</v>
+      </c>
+      <c r="V28">
+        <v>20</v>
+      </c>
+      <c r="W28">
+        <v>10</v>
+      </c>
+      <c r="X28">
+        <v>10</v>
+      </c>
+      <c r="Y28">
+        <v>50</v>
+      </c>
+      <c r="Z28">
+        <v>76</v>
+      </c>
+      <c r="AA28">
+        <v>76</v>
+      </c>
+      <c r="AB28">
+        <v>41</v>
+      </c>
+      <c r="AC28">
+        <v>41</v>
+      </c>
+      <c r="AD28">
+        <v>54</v>
+      </c>
+      <c r="AE28">
+        <v>22</v>
+      </c>
+      <c r="AF28">
+        <v>22</v>
+      </c>
+      <c r="AG28">
+        <v>17</v>
+      </c>
+      <c r="AH28">
+        <v>17</v>
+      </c>
+      <c r="AI28">
+        <v>77.3</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>25</v>
+      </c>
+      <c r="AT28">
+        <v>22</v>
+      </c>
+      <c r="AU28">
+        <v>22</v>
+      </c>
+      <c r="AV28">
+        <v>25</v>
+      </c>
+      <c r="AW28">
+        <v>25</v>
+      </c>
+      <c r="AX28">
+        <v>1</v>
+      </c>
+      <c r="AY28">
+        <v>1</v>
+      </c>
+      <c r="AZ28">
+        <v>1</v>
+      </c>
+      <c r="BA28">
+        <v>26</v>
+      </c>
+      <c r="BB28">
+        <v>22</v>
+      </c>
+      <c r="BC28">
+        <v>22</v>
+      </c>
+      <c r="BD28">
+        <v>26</v>
+      </c>
+      <c r="BE28">
+        <v>8</v>
+      </c>
+      <c r="BF28">
+        <v>8</v>
+      </c>
+      <c r="BG28">
+        <v>29</v>
+      </c>
+      <c r="BH28">
+        <v>29</v>
+      </c>
+      <c r="BI28">
+        <v>109</v>
+      </c>
+      <c r="BJ28">
+        <v>109</v>
+      </c>
+      <c r="BK28">
+        <v>43</v>
+      </c>
+      <c r="BL28">
+        <v>43</v>
+      </c>
+      <c r="BM28">
+        <v>7</v>
+      </c>
+      <c r="BN28">
+        <v>7</v>
+      </c>
+      <c r="BO28">
+        <v>50</v>
+      </c>
+      <c r="BP28">
+        <v>50</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>1</v>
+      </c>
+      <c r="BT28">
+        <v>1</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV28">
         <v>87</v>
       </c>
     </row>
